--- a/Expenses/budsjett.xlsx
+++ b/Expenses/budsjett.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{D1E3AC08-BAAF-4DA3-8334-DFB525A5E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8149AD15-2320-4B18-A5E1-5C5B9ED06738}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{D1E3AC08-BAAF-4DA3-8334-DFB525A5E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFC017C-5398-45B0-B5D9-9989D164D9E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{1DAC3573-2F00-4CAF-9925-DE49315B4260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1DAC3573-2F00-4CAF-9925-DE49315B4260}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Isolasjon" sheetId="2" r:id="rId2"/>
-    <sheet name="Tak" sheetId="3" r:id="rId3"/>
+    <sheet name="TotalCost" sheetId="5" r:id="rId1"/>
+    <sheet name="Areal" sheetId="1" r:id="rId2"/>
+    <sheet name="Isolasjon" sheetId="2" r:id="rId3"/>
+    <sheet name="Tak" sheetId="3" r:id="rId4"/>
+    <sheet name="Betong" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="etasjeskilleAreal">Sheet1!$B$33</definedName>
-    <definedName name="takAreal">Sheet1!$B$34</definedName>
+    <definedName name="etasjeskilleAreal">Areal!$B$33</definedName>
+    <definedName name="grunnplate">Areal!$B$32</definedName>
+    <definedName name="takAreal">Areal!$B$34</definedName>
+    <definedName name="takIsolasjon">Isolasjon!$B$14</definedName>
+    <definedName name="totaltBetong">Betong!$B$11</definedName>
+    <definedName name="totaltTak">Tak!$B$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>Room Name</t>
   </si>
@@ -189,6 +196,93 @@
   </si>
   <si>
     <t>Feder</t>
+  </si>
+  <si>
+    <t>Taktekking</t>
+  </si>
+  <si>
+    <t>X finer</t>
+  </si>
+  <si>
+    <t>Coop</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>GLAVA PROFF 34 PLATE 250X570X1200MM</t>
+  </si>
+  <si>
+    <t>GLAVA PROFF 34 PLATE 300X570X1200MM</t>
+  </si>
+  <si>
+    <t>OSB</t>
+  </si>
+  <si>
+    <t>Isolasjon</t>
+  </si>
+  <si>
+    <t>YtterveggerPlan 1</t>
+  </si>
+  <si>
+    <t>Volum</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>betong</t>
+  </si>
+  <si>
+    <t>Spennbetong</t>
+  </si>
+  <si>
+    <t>Isolasjon Gulv</t>
+  </si>
+  <si>
+    <t>EPS 100mm</t>
+  </si>
+  <si>
+    <t>Thermomur</t>
+  </si>
+  <si>
+    <t>IsolasjonVegg</t>
+  </si>
+  <si>
+    <t>Sprenging og graving</t>
+  </si>
+  <si>
+    <t>Rørlegger</t>
+  </si>
+  <si>
+    <t>Elektromateriell</t>
+  </si>
+  <si>
+    <t>Vindu</t>
+  </si>
+  <si>
+    <t>BetongArbeider</t>
+  </si>
+  <si>
+    <t>EtasjeSkille</t>
+  </si>
+  <si>
+    <t>YtterVegger</t>
+  </si>
+  <si>
+    <t>InnerVegger</t>
+  </si>
+  <si>
+    <t>GIPS</t>
+  </si>
+  <si>
+    <t>Himiling</t>
+  </si>
+  <si>
+    <t>Maling og Sparkling</t>
   </si>
 </sst>
 </file>
@@ -196,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -244,7 +338,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -261,6 +355,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,11 +677,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485A60F-F270-41DA-962A-A3DECE087EE5}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1">
+        <f>SUM(B3:B33)</f>
+        <v>1911261.7485372706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>totaltTak</f>
+        <v>376295.32853727066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>totaltBetong</f>
+        <v>504966.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3147B91D-D3E7-4D51-BEB3-FA38B3BA7C39}">
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -613,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -624,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -881,12 +1089,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11822C65-22F5-4BB4-9EFC-8DD5513A931B}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +1104,12 @@
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -907,7 +1120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>50673961</v>
       </c>
@@ -917,8 +1130,11 @@
       <c r="C3" s="2">
         <v>65.540000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>50673976</v>
       </c>
@@ -929,7 +1145,7 @@
         <v>89.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>50673624</v>
       </c>
@@ -939,8 +1155,11 @@
       <c r="C5" s="2">
         <v>124.76</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>50673632</v>
       </c>
@@ -950,8 +1169,11 @@
       <c r="C6" s="2">
         <v>188.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50673658</v>
       </c>
@@ -961,23 +1183,42 @@
       <c r="C7" s="2">
         <v>248.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>178.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>231.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>292.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -986,7 +1227,7 @@
         <v>29910.239675399996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -995,7 +1236,7 @@
         <v>59385.0064824</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1009,12 +1250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27FC47F-51F4-4697-B823-762299CDDDDE}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1296,14 @@
         <v>300</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
@@ -1116,6 +1365,172 @@
       <c r="B15">
         <f>B9+B13</f>
         <v>96617.468554870691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f>takAreal*B5</f>
+        <v>20292.853499999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <f>takIsolasjon</f>
+        <v>59385.0064824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <f>B15+B18+B20+B22</f>
+        <v>376295.32853727066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856C3782-6F46-48A1-81B1-07764E40C191}">
+  <dimension ref="A3:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <f>(11.29+16.379+(11.49+3.255-3.651)+4.416+2.085+5.255)*2.4-4*2.1-2*2.1</f>
+        <v>108.6456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <f>B3*0.2</f>
+        <v>21.729120000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>1125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B12:B30)</f>
+        <v>504966.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <f>B6*B4</f>
+        <v>43458.240000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f>grunnplate*0.2*B6</f>
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <f>etasjeskilleAreal*B7</f>
+        <v>240571.37999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <f>grunnplate*B8</f>
+        <v>27310.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <f>B3*B9</f>
+        <v>122226.3</v>
       </c>
     </row>
   </sheetData>
